--- a/output7/【河洛文讀注音-閩拼調號】《蒹葭》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《蒹葭》.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DEFDD05-7970-498F-B9A1-32A74917E904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA665D9-4B19-4CDD-AEDF-B88DD298F644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="1316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="1315">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4001,9 +4001,6 @@
   </si>
   <si>
     <t>上及右</t>
-  </si>
-  <si>
-    <t>方音符號</t>
   </si>
   <si>
     <t>output7</t>
@@ -5075,6 +5072,16 @@
     <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
@@ -5089,16 +5096,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -6860,8 +6857,8 @@
   </sheetPr>
   <dimension ref="B1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -6913,7 +6910,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -6921,7 +6918,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="D7" s="47"/>
     </row>
@@ -6930,7 +6927,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="30">
@@ -7021,7 +7018,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30">
@@ -7050,8 +7047,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10" xr:uid="{DA27CAB0-65C9-4E40-AD59-F7B4693C00B1}">
       <formula1>"TRUE, FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C18:C19 C15" xr:uid="{D5D3E041-FB0A-4D86-8833-54CE1BCA04EC}">
-      <formula1>" ,十五音, 雅俗通,方音符號,台語音標, 白話字, 台羅拼音,閩拼調號, 閩拼調符"</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C15 C18:C19" xr:uid="{925E59DA-A545-4B6B-AF46-8C9DC843AEEA}">
+      <formula1>" ,十五音, 雅俗通,方音符號,注音二式,台語音標, 白話字, 台羅拼音,閩拼調號, 閩拼調符"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -7085,58 +7082,58 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B2" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="C2" t="s">
         <v>499</v>
       </c>
       <c r="D2" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="B3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="C3" t="s">
         <v>499</v>
       </c>
       <c r="D3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B4" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="C4" t="s">
         <v>499</v>
       </c>
       <c r="D4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B5" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="C5" t="s">
         <v>499</v>
       </c>
       <c r="D5" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7150,54 +7147,54 @@
         <v>499</v>
       </c>
       <c r="D6" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B7" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C7" t="s">
         <v>499</v>
       </c>
       <c r="D7" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B8" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="C8" t="s">
         <v>499</v>
       </c>
       <c r="D8" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B9" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="C9" t="s">
         <v>499</v>
       </c>
       <c r="D9" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B10" t="s">
         <v>496</v>
@@ -7206,7 +7203,7 @@
         <v>499</v>
       </c>
       <c r="D10" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7220,7 +7217,7 @@
         <v>499</v>
       </c>
       <c r="D11" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7234,21 +7231,21 @@
         <v>499</v>
       </c>
       <c r="D12" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B13" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="C13" t="s">
         <v>499</v>
       </c>
       <c r="D13" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7262,12 +7259,12 @@
         <v>499</v>
       </c>
       <c r="D14" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B15" t="s">
         <v>389</v>
@@ -7276,35 +7273,35 @@
         <v>499</v>
       </c>
       <c r="D15" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B16" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="C16" t="s">
         <v>499</v>
       </c>
       <c r="D16" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="B17" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="C17" t="s">
         <v>499</v>
       </c>
       <c r="D17" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7318,49 +7315,49 @@
         <v>499</v>
       </c>
       <c r="D18" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="B19" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="C19" t="s">
         <v>499</v>
       </c>
       <c r="D19" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="B20" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C20" t="s">
         <v>499</v>
       </c>
       <c r="D20" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B21" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="C21" t="s">
         <v>499</v>
       </c>
       <c r="D21" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -7374,7 +7371,7 @@
         <v>499</v>
       </c>
       <c r="D22" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7388,12 +7385,12 @@
         <v>499</v>
       </c>
       <c r="D23" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B24" t="s">
         <v>347</v>
@@ -7402,12 +7399,12 @@
         <v>499</v>
       </c>
       <c r="D24" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B25" t="s">
         <v>319</v>
@@ -7416,54 +7413,54 @@
         <v>499</v>
       </c>
       <c r="D25" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B26" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="C26" t="s">
         <v>499</v>
       </c>
       <c r="D26" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B27" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C27" t="s">
         <v>499</v>
       </c>
       <c r="D27" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B28" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="C28" t="s">
         <v>499</v>
       </c>
       <c r="D28" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B29" t="s">
         <v>481</v>
@@ -7472,15 +7469,15 @@
         <v>499</v>
       </c>
       <c r="D29" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="B30" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C30" t="s">
         <v>499</v>
@@ -7491,21 +7488,21 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="B31" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C31" t="s">
         <v>499</v>
       </c>
       <c r="D31" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B32" t="s">
         <v>336</v>
@@ -7514,85 +7511,85 @@
         <v>499</v>
       </c>
       <c r="D32" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="B33" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="C33" t="s">
         <v>499</v>
       </c>
       <c r="D33" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B34" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="C34" t="s">
         <v>499</v>
       </c>
       <c r="D34" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B35" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C35" t="s">
         <v>499</v>
       </c>
       <c r="D35" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B36" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="C36" t="s">
         <v>499</v>
       </c>
       <c r="D36" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B37" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="C37" t="s">
         <v>499</v>
       </c>
       <c r="D37" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B38" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="C38" t="s">
         <v>499</v>
@@ -7603,7 +7600,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B39" t="s">
         <v>440</v>
@@ -7612,7 +7609,7 @@
         <v>499</v>
       </c>
       <c r="D39" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
   </sheetData>
@@ -7647,77 +7644,77 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B2" t="s">
         <v>499</v>
       </c>
       <c r="C2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D2" t="s">
         <v>1257</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1258</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B3" t="s">
         <v>499</v>
       </c>
       <c r="C3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D3" t="s">
         <v>1259</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1260</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B4" t="s">
         <v>499</v>
       </c>
       <c r="C4" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D4" t="s">
         <v>1261</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B5" t="s">
         <v>499</v>
       </c>
       <c r="C5" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D5" t="s">
         <v>1263</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B6" t="s">
         <v>499</v>
       </c>
       <c r="C6" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D6" t="s">
         <v>1265</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1266</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B7" t="s">
         <v>499</v>
@@ -7761,69 +7758,69 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B2" t="s">
         <v>499</v>
       </c>
       <c r="C2" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="B3" t="s">
         <v>499</v>
       </c>
       <c r="C3" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D3" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B4" t="s">
         <v>499</v>
       </c>
       <c r="C4" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B5" t="s">
         <v>499</v>
       </c>
       <c r="C5" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="D5" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="B6" t="s">
         <v>499</v>
       </c>
       <c r="C6" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="D6" t="s">
         <v>1003</v>
@@ -7831,7 +7828,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="B7" t="s">
         <v>499</v>
@@ -7840,7 +7837,7 @@
         <v>440</v>
       </c>
       <c r="D7" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
   </sheetData>
@@ -7881,7 +7878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V2002"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -8001,11 +7998,11 @@
     <row r="3" spans="1:22" s="15" customFormat="1" ht="60" customHeight="1">
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="52"/>
       <c r="J3" s="52"/>
       <c r="K3" s="52"/>
@@ -8017,21 +8014,21 @@
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="54" t="s">
-        <v>1200</v>
+      <c r="V3" s="57" t="s">
+        <v>1199</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="17"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60" t="s">
-        <v>1257</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>1268</v>
-      </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
       <c r="I4" s="50"/>
       <c r="J4" s="50"/>
       <c r="K4" s="50"/>
@@ -8043,25 +8040,25 @@
       <c r="Q4" s="50"/>
       <c r="R4" s="50"/>
       <c r="S4" s="18"/>
-      <c r="V4" s="55"/>
+      <c r="V4" s="58"/>
     </row>
     <row r="5" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="19">
         <v>1</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="54" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E5" s="54" t="s">
         <v>1167</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="F5" s="54" t="s">
         <v>1168</v>
       </c>
-      <c r="F5" s="59" t="s">
+      <c r="G5" s="54" t="s">
         <v>1169</v>
       </c>
-      <c r="G5" s="59" t="s">
-        <v>1170</v>
-      </c>
-      <c r="H5" s="59" t="str">
+      <c r="H5" s="54" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -8077,17 +8074,17 @@
       <c r="Q5" s="39"/>
       <c r="R5" s="39"/>
       <c r="S5" s="20"/>
-      <c r="V5" s="55"/>
+      <c r="V5" s="58"/>
     </row>
     <row r="6" spans="1:22" s="24" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="21"/>
       <c r="C6" s="22"/>
       <c r="D6" s="51"/>
       <c r="E6" s="51" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="F6" s="51" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="G6" s="51"/>
       <c r="H6" s="51"/>
@@ -8102,180 +8099,180 @@
       <c r="Q6" s="51"/>
       <c r="R6" s="51"/>
       <c r="S6" s="23"/>
-      <c r="V6" s="55"/>
+      <c r="V6" s="58"/>
     </row>
     <row r="7" spans="1:22" s="28" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="25"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
       <c r="S7" s="27"/>
-      <c r="V7" s="55"/>
+      <c r="V7" s="58"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
-      <c r="D8" s="60" t="s">
-        <v>1257</v>
-      </c>
-      <c r="E8" s="60" t="s">
-        <v>1268</v>
-      </c>
-      <c r="F8" s="60" t="s">
+      <c r="D8" s="55" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G8" s="55" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55" t="s">
         <v>1270</v>
       </c>
-      <c r="G8" s="60" t="s">
-        <v>1270</v>
-      </c>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60" t="s">
-        <v>1271</v>
-      </c>
-      <c r="J8" s="60" t="s">
-        <v>1273</v>
-      </c>
-      <c r="K8" s="60" t="s">
+      <c r="J8" s="55" t="s">
+        <v>1272</v>
+      </c>
+      <c r="K8" s="55" t="s">
         <v>880</v>
       </c>
-      <c r="L8" s="60" t="s">
+      <c r="L8" s="55" t="s">
+        <v>1275</v>
+      </c>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55" t="s">
         <v>1276</v>
       </c>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60" t="s">
-        <v>1277</v>
-      </c>
-      <c r="O8" s="60" t="s">
-        <v>1279</v>
-      </c>
-      <c r="P8" s="60" t="s">
+      <c r="O8" s="55" t="s">
+        <v>1278</v>
+      </c>
+      <c r="P8" s="55" t="s">
         <v>497</v>
       </c>
-      <c r="Q8" s="60" t="s">
+      <c r="Q8" s="55" t="s">
         <v>541</v>
       </c>
-      <c r="R8" s="60"/>
+      <c r="R8" s="55"/>
       <c r="S8" s="18"/>
-      <c r="V8" s="55"/>
+      <c r="V8" s="58"/>
     </row>
     <row r="9" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="19">
         <f>B5+1</f>
         <v>2</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="54" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E9" s="54" t="s">
         <v>1168</v>
       </c>
-      <c r="E9" s="59" t="s">
-        <v>1169</v>
-      </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="54" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>1170</v>
+      </c>
+      <c r="H9" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="54" t="s">
         <v>1171</v>
       </c>
-      <c r="G9" s="59" t="s">
-        <v>1171</v>
-      </c>
-      <c r="H9" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="59" t="s">
+      <c r="J9" s="54" t="s">
         <v>1172</v>
       </c>
-      <c r="J9" s="59" t="s">
+      <c r="K9" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="L9" s="54" t="s">
         <v>1173</v>
       </c>
-      <c r="K9" s="59" t="s">
-        <v>273</v>
-      </c>
-      <c r="L9" s="59" t="s">
+      <c r="M9" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="54" t="s">
         <v>1174</v>
       </c>
-      <c r="M9" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="59" t="s">
+      <c r="O9" s="54" t="s">
         <v>1175</v>
       </c>
-      <c r="O9" s="59" t="s">
+      <c r="P9" s="54" t="s">
         <v>1176</v>
       </c>
-      <c r="P9" s="59" t="s">
-        <v>1177</v>
-      </c>
-      <c r="Q9" s="59" t="s">
+      <c r="Q9" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="R9" s="59" t="s">
+      <c r="R9" s="54" t="s">
         <v>23</v>
       </c>
       <c r="S9" s="20"/>
       <c r="T9" s="16"/>
-      <c r="V9" s="55"/>
+      <c r="V9" s="58"/>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="21"/>
       <c r="D10" s="51" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E10" s="51" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F10" s="51" t="s">
         <v>1269</v>
       </c>
-      <c r="F10" s="51" t="s">
-        <v>1270</v>
-      </c>
       <c r="G10" s="51" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H10" s="51"/>
       <c r="I10" s="51" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="J10" s="51" t="s">
+        <v>1273</v>
+      </c>
+      <c r="K10" s="51" t="s">
         <v>1274</v>
       </c>
-      <c r="K10" s="51" t="s">
+      <c r="L10" s="51" t="s">
         <v>1275</v>
-      </c>
-      <c r="L10" s="51" t="s">
-        <v>1276</v>
       </c>
       <c r="M10" s="51"/>
       <c r="N10" s="51" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="O10" s="51" t="s">
+        <v>1279</v>
+      </c>
+      <c r="P10" s="51" t="s">
         <v>1280</v>
       </c>
-      <c r="P10" s="51" t="s">
+      <c r="Q10" s="51" t="s">
         <v>1281</v>
-      </c>
-      <c r="Q10" s="51" t="s">
-        <v>1282</v>
       </c>
       <c r="R10" s="51"/>
       <c r="S10" s="29"/>
-      <c r="V10" s="55"/>
+      <c r="V10" s="58"/>
     </row>
     <row r="11" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="30"/>
       <c r="C11" s="31"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
       <c r="J11" s="52"/>
       <c r="K11" s="52"/>
       <c r="L11" s="52"/>
@@ -8285,24 +8282,24 @@
       <c r="P11" s="52"/>
       <c r="Q11" s="52"/>
       <c r="R11" s="52"/>
-      <c r="V11" s="55"/>
+      <c r="V11" s="58"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="55" t="s">
         <v>611</v>
       </c>
-      <c r="E12" s="60" t="s">
-        <v>1284</v>
-      </c>
-      <c r="F12" s="60" t="s">
+      <c r="E12" s="55" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F12" s="55" t="s">
         <v>617</v>
       </c>
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="55" t="s">
         <v>708</v>
       </c>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
       <c r="J12" s="50"/>
       <c r="K12" s="50"/>
       <c r="L12" s="50"/>
@@ -8313,29 +8310,29 @@
       <c r="Q12" s="50"/>
       <c r="R12" s="50"/>
       <c r="S12" s="18"/>
-      <c r="V12" s="55"/>
+      <c r="V12" s="58"/>
     </row>
     <row r="13" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="19">
         <f>B9+1</f>
         <v>3</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="54" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="54" t="s">
         <v>1178</v>
       </c>
-      <c r="F13" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="59" t="s">
-        <v>1179</v>
-      </c>
-      <c r="H13" s="59" t="s">
+      <c r="H13" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="59" t="str">
+      <c r="I13" s="54" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -8350,18 +8347,18 @@
       <c r="Q13" s="39"/>
       <c r="R13" s="39"/>
       <c r="S13" s="20"/>
-      <c r="V13" s="55"/>
+      <c r="V13" s="58"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="21"/>
       <c r="D14" s="51" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E14" s="51" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F14" s="51" t="s">
         <v>1285</v>
-      </c>
-      <c r="F14" s="51" t="s">
-        <v>1286</v>
       </c>
       <c r="G14" s="51" t="s">
         <v>708</v>
@@ -8378,179 +8375,179 @@
       <c r="Q14" s="51"/>
       <c r="R14" s="51"/>
       <c r="S14" s="29"/>
-      <c r="V14" s="55"/>
+      <c r="V14" s="58"/>
     </row>
     <row r="15" spans="1:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
       <c r="C15" s="32"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="V15" s="55"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="V15" s="58"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
-      <c r="D16" s="60" t="s">
-        <v>1278</v>
-      </c>
-      <c r="E16" s="60" t="s">
-        <v>1259</v>
-      </c>
-      <c r="F16" s="60" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G16" s="60" t="s">
+      <c r="D16" s="55" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F16" s="55" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G16" s="55" t="s">
         <v>601</v>
       </c>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60" t="s">
-        <v>1291</v>
-      </c>
-      <c r="J16" s="60" t="s">
-        <v>1293</v>
-      </c>
-      <c r="K16" s="60" t="s">
-        <v>1295</v>
-      </c>
-      <c r="L16" s="60" t="s">
+      <c r="H16" s="55"/>
+      <c r="I16" s="55" t="s">
+        <v>1290</v>
+      </c>
+      <c r="J16" s="55" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K16" s="55" t="s">
+        <v>1294</v>
+      </c>
+      <c r="L16" s="55" t="s">
         <v>627</v>
       </c>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60" t="s">
-        <v>1278</v>
-      </c>
-      <c r="O16" s="60" t="s">
+      <c r="M16" s="55"/>
+      <c r="N16" s="55" t="s">
+        <v>1277</v>
+      </c>
+      <c r="O16" s="55" t="s">
         <v>814</v>
       </c>
-      <c r="P16" s="60" t="s">
-        <v>1289</v>
-      </c>
-      <c r="Q16" s="60" t="s">
+      <c r="P16" s="55" t="s">
+        <v>1288</v>
+      </c>
+      <c r="Q16" s="55" t="s">
         <v>601</v>
       </c>
-      <c r="R16" s="60"/>
+      <c r="R16" s="55"/>
       <c r="S16" s="18"/>
-      <c r="V16" s="55"/>
+      <c r="V16" s="58"/>
     </row>
     <row r="17" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="19">
         <f>B13+1</f>
         <v>4</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="54" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E17" s="54" t="s">
         <v>1180</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="F17" s="54" t="s">
         <v>1181</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="G17" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="54" t="s">
         <v>1182</v>
       </c>
-      <c r="G17" s="59" t="s">
+      <c r="J17" s="54" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K17" s="54" t="s">
+        <v>1184</v>
+      </c>
+      <c r="L17" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="M17" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="54" t="s">
+        <v>1179</v>
+      </c>
+      <c r="O17" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="P17" s="54" t="s">
+        <v>1181</v>
+      </c>
+      <c r="Q17" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="H17" s="59" t="s">
+      <c r="R17" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="I17" s="59" t="s">
-        <v>1183</v>
-      </c>
-      <c r="J17" s="59" t="s">
-        <v>1184</v>
-      </c>
-      <c r="K17" s="59" t="s">
-        <v>1185</v>
-      </c>
-      <c r="L17" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="M17" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="N17" s="59" t="s">
-        <v>1180</v>
-      </c>
-      <c r="O17" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="P17" s="59" t="s">
-        <v>1182</v>
-      </c>
-      <c r="Q17" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="R17" s="59" t="s">
-        <v>23</v>
-      </c>
       <c r="S17" s="20"/>
-      <c r="V17" s="55"/>
+      <c r="V17" s="58"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="21"/>
       <c r="D18" s="51" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E18" s="51" t="s">
         <v>1287</v>
       </c>
-      <c r="E18" s="51" t="s">
-        <v>1288</v>
-      </c>
       <c r="F18" s="51" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="G18" s="51" t="s">
         <v>601</v>
       </c>
       <c r="H18" s="51"/>
       <c r="I18" s="51" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="J18" s="51" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="K18" s="51" t="s">
+        <v>1295</v>
+      </c>
+      <c r="L18" s="51" t="s">
         <v>1296</v>
-      </c>
-      <c r="L18" s="51" t="s">
-        <v>1297</v>
       </c>
       <c r="M18" s="51"/>
       <c r="N18" s="51" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="O18" s="51" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="P18" s="51" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="Q18" s="51" t="s">
         <v>601</v>
       </c>
       <c r="R18" s="51"/>
       <c r="S18" s="29"/>
-      <c r="V18" s="55"/>
+      <c r="V18" s="58"/>
     </row>
     <row r="19" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
       <c r="C19" s="32"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
       <c r="K19" s="52"/>
       <c r="L19" s="52"/>
       <c r="M19" s="52"/>
@@ -8559,27 +8556,27 @@
       <c r="P19" s="52"/>
       <c r="Q19" s="52"/>
       <c r="R19" s="52"/>
-      <c r="V19" s="55"/>
+      <c r="V19" s="58"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="55" t="s">
         <v>621</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="55" t="s">
         <v>611</v>
       </c>
-      <c r="F20" s="60" t="s">
-        <v>1284</v>
-      </c>
-      <c r="G20" s="60" t="s">
+      <c r="F20" s="55" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G20" s="55" t="s">
         <v>555</v>
       </c>
-      <c r="H20" s="60" t="s">
-        <v>1301</v>
-      </c>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
+      <c r="H20" s="55" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
       <c r="K20" s="50"/>
       <c r="L20" s="50"/>
       <c r="M20" s="50"/>
@@ -8589,32 +8586,32 @@
       <c r="Q20" s="50"/>
       <c r="R20" s="50"/>
       <c r="S20" s="18"/>
-      <c r="V20" s="55"/>
+      <c r="V20" s="58"/>
     </row>
     <row r="21" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="19">
         <f>B17+1</f>
         <v>5</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="54" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="54" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G21" s="54" t="s">
         <v>1186</v>
       </c>
-      <c r="E21" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="59" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G21" s="59" t="s">
+      <c r="H21" s="54" t="s">
         <v>1187</v>
       </c>
-      <c r="H21" s="59" t="s">
-        <v>1188</v>
-      </c>
-      <c r="I21" s="59" t="s">
+      <c r="I21" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="59" t="str">
+      <c r="J21" s="54" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -8628,24 +8625,24 @@
       <c r="Q21" s="39"/>
       <c r="R21" s="39"/>
       <c r="S21" s="20"/>
-      <c r="V21" s="55"/>
+      <c r="V21" s="58"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="21"/>
       <c r="D22" s="51" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G22" s="51" t="s">
         <v>1299</v>
       </c>
-      <c r="E22" s="51" t="s">
-        <v>1283</v>
-      </c>
-      <c r="F22" s="51" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G22" s="51" t="s">
-        <v>1300</v>
-      </c>
       <c r="H22" s="51" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I22" s="51"/>
       <c r="J22" s="51"/>
@@ -8658,178 +8655,178 @@
       <c r="Q22" s="51"/>
       <c r="R22" s="51"/>
       <c r="S22" s="29"/>
-      <c r="V22" s="55"/>
+      <c r="V22" s="58"/>
     </row>
     <row r="23" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
       <c r="C23" s="32"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="V23" s="55"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="V23" s="58"/>
     </row>
     <row r="24" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B24" s="17"/>
-      <c r="D24" s="60" t="s">
-        <v>1257</v>
-      </c>
-      <c r="E24" s="60" t="s">
-        <v>1268</v>
-      </c>
-      <c r="F24" s="60" t="s">
-        <v>1261</v>
-      </c>
-      <c r="G24" s="60" t="s">
-        <v>1261</v>
-      </c>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60" t="s">
-        <v>1271</v>
-      </c>
-      <c r="J24" s="60" t="s">
-        <v>1273</v>
-      </c>
-      <c r="K24" s="60" t="s">
-        <v>1303</v>
-      </c>
-      <c r="L24" s="60" t="s">
-        <v>1305</v>
-      </c>
-      <c r="M24" s="60"/>
-      <c r="N24" s="60" t="s">
-        <v>1277</v>
-      </c>
-      <c r="O24" s="60" t="s">
-        <v>1279</v>
-      </c>
-      <c r="P24" s="60" t="s">
+      <c r="D24" s="55" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E24" s="55" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G24" s="55" t="s">
+        <v>1260</v>
+      </c>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55" t="s">
+        <v>1270</v>
+      </c>
+      <c r="J24" s="55" t="s">
+        <v>1272</v>
+      </c>
+      <c r="K24" s="55" t="s">
+        <v>1302</v>
+      </c>
+      <c r="L24" s="55" t="s">
+        <v>1304</v>
+      </c>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55" t="s">
+        <v>1276</v>
+      </c>
+      <c r="O24" s="55" t="s">
+        <v>1278</v>
+      </c>
+      <c r="P24" s="55" t="s">
         <v>497</v>
       </c>
-      <c r="Q24" s="60" t="s">
+      <c r="Q24" s="55" t="s">
         <v>541</v>
       </c>
-      <c r="R24" s="60"/>
+      <c r="R24" s="55"/>
       <c r="S24" s="18"/>
-      <c r="V24" s="55"/>
+      <c r="V24" s="58"/>
     </row>
     <row r="25" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B25" s="19">
         <f>B21+1</f>
         <v>6</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="54" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E25" s="54" t="s">
         <v>1168</v>
       </c>
-      <c r="E25" s="59" t="s">
-        <v>1169</v>
-      </c>
-      <c r="F25" s="59" t="s">
+      <c r="F25" s="54" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G25" s="54" t="s">
+        <v>1188</v>
+      </c>
+      <c r="H25" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="54" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J25" s="54" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K25" s="54" t="s">
         <v>1189</v>
       </c>
-      <c r="G25" s="59" t="s">
-        <v>1189</v>
-      </c>
-      <c r="H25" s="59" t="s">
+      <c r="L25" s="54" t="s">
+        <v>1190</v>
+      </c>
+      <c r="M25" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" s="54" t="s">
+        <v>1174</v>
+      </c>
+      <c r="O25" s="54" t="s">
+        <v>1175</v>
+      </c>
+      <c r="P25" s="54" t="s">
+        <v>1176</v>
+      </c>
+      <c r="Q25" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="R25" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="59" t="s">
-        <v>1172</v>
-      </c>
-      <c r="J25" s="59" t="s">
-        <v>1173</v>
-      </c>
-      <c r="K25" s="59" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L25" s="59" t="s">
-        <v>1191</v>
-      </c>
-      <c r="M25" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="N25" s="59" t="s">
-        <v>1175</v>
-      </c>
-      <c r="O25" s="59" t="s">
-        <v>1176</v>
-      </c>
-      <c r="P25" s="59" t="s">
-        <v>1177</v>
-      </c>
-      <c r="Q25" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="R25" s="59" t="s">
-        <v>23</v>
-      </c>
       <c r="S25" s="20"/>
-      <c r="V25" s="55"/>
+      <c r="V25" s="58"/>
     </row>
     <row r="26" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="21"/>
       <c r="D26" s="51" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="F26" s="51" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G26" s="51" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H26" s="51"/>
       <c r="I26" s="51" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="J26" s="51" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="K26" s="51" t="s">
+        <v>1303</v>
+      </c>
+      <c r="L26" s="51" t="s">
         <v>1304</v>
-      </c>
-      <c r="L26" s="51" t="s">
-        <v>1305</v>
       </c>
       <c r="M26" s="51"/>
       <c r="N26" s="51" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="O26" s="51" t="s">
+        <v>1279</v>
+      </c>
+      <c r="P26" s="51" t="s">
         <v>1280</v>
       </c>
-      <c r="P26" s="51" t="s">
+      <c r="Q26" s="51" t="s">
         <v>1281</v>
-      </c>
-      <c r="Q26" s="51" t="s">
-        <v>1282</v>
       </c>
       <c r="R26" s="51"/>
       <c r="S26" s="29"/>
-      <c r="V26" s="55"/>
+      <c r="V26" s="58"/>
     </row>
     <row r="27" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B27" s="12"/>
       <c r="C27" s="32"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
       <c r="J27" s="52"/>
       <c r="K27" s="52"/>
       <c r="L27" s="52"/>
@@ -8843,24 +8840,24 @@
         <f t="shared" ref="U27:U32" si="1" xml:space="preserve"> MID($N$26,4,1)</f>
         <v>3</v>
       </c>
-      <c r="V27" s="55"/>
+      <c r="V27" s="58"/>
     </row>
     <row r="28" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B28" s="17"/>
-      <c r="D28" s="60" t="s">
+      <c r="D28" s="55" t="s">
         <v>611</v>
       </c>
-      <c r="E28" s="60" t="s">
-        <v>1284</v>
-      </c>
-      <c r="F28" s="60" t="s">
+      <c r="E28" s="55" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F28" s="55" t="s">
         <v>601</v>
       </c>
-      <c r="G28" s="60" t="s">
+      <c r="G28" s="55" t="s">
         <v>912</v>
       </c>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
       <c r="J28" s="50"/>
       <c r="K28" s="50"/>
       <c r="L28" s="50"/>
@@ -8875,29 +8872,29 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="V28" s="55"/>
+      <c r="V28" s="58"/>
     </row>
     <row r="29" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B29" s="19">
         <f>B25+1</f>
         <v>7</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="59" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F29" s="59" t="s">
+      <c r="E29" s="54" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F29" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="G29" s="59" t="s">
-        <v>1192</v>
-      </c>
-      <c r="H29" s="59" t="s">
+      <c r="G29" s="54" t="s">
+        <v>1191</v>
+      </c>
+      <c r="H29" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="59" t="str">
+      <c r="I29" s="54" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -8916,21 +8913,21 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="V29" s="55"/>
+      <c r="V29" s="58"/>
     </row>
     <row r="30" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="21"/>
       <c r="D30" s="51" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E30" s="51" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F30" s="51" t="s">
         <v>601</v>
       </c>
       <c r="G30" s="51" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="H30" s="51"/>
       <c r="I30" s="51"/>
@@ -8948,187 +8945,187 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="V30" s="55"/>
+      <c r="V30" s="58"/>
     </row>
     <row r="31" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B31" s="12"/>
       <c r="C31" s="32"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="61"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
       <c r="U31" s="33" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="V31" s="55"/>
+      <c r="V31" s="58"/>
     </row>
     <row r="32" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B32" s="17"/>
-      <c r="D32" s="60" t="s">
-        <v>1278</v>
-      </c>
-      <c r="E32" s="60" t="s">
-        <v>1259</v>
-      </c>
-      <c r="F32" s="60" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G32" s="60" t="s">
+      <c r="D32" s="55" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E32" s="55" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F32" s="55" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G32" s="55" t="s">
         <v>601</v>
       </c>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60" t="s">
-        <v>1291</v>
-      </c>
-      <c r="J32" s="60" t="s">
-        <v>1293</v>
-      </c>
-      <c r="K32" s="60" t="s">
-        <v>1295</v>
-      </c>
-      <c r="L32" s="60" t="s">
-        <v>1263</v>
-      </c>
-      <c r="M32" s="60"/>
-      <c r="N32" s="60" t="s">
-        <v>1278</v>
-      </c>
-      <c r="O32" s="60" t="s">
+      <c r="H32" s="55"/>
+      <c r="I32" s="55" t="s">
+        <v>1290</v>
+      </c>
+      <c r="J32" s="55" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K32" s="55" t="s">
+        <v>1294</v>
+      </c>
+      <c r="L32" s="55" t="s">
+        <v>1262</v>
+      </c>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55" t="s">
+        <v>1277</v>
+      </c>
+      <c r="O32" s="55" t="s">
         <v>814</v>
       </c>
-      <c r="P32" s="60" t="s">
-        <v>1289</v>
-      </c>
-      <c r="Q32" s="60" t="s">
+      <c r="P32" s="55" t="s">
+        <v>1288</v>
+      </c>
+      <c r="Q32" s="55" t="s">
         <v>601</v>
       </c>
-      <c r="R32" s="60"/>
+      <c r="R32" s="55"/>
       <c r="S32" s="18"/>
       <c r="U32" s="33" t="str">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="V32" s="55"/>
+      <c r="V32" s="58"/>
     </row>
     <row r="33" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B33" s="19">
         <f>B29+1</f>
         <v>8</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="54" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E33" s="54" t="s">
         <v>1180</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="F33" s="54" t="s">
         <v>1181</v>
       </c>
-      <c r="F33" s="59" t="s">
+      <c r="G33" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="H33" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="54" t="s">
         <v>1182</v>
       </c>
-      <c r="G33" s="59" t="s">
+      <c r="J33" s="54" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K33" s="54" t="s">
+        <v>1184</v>
+      </c>
+      <c r="L33" s="54" t="s">
+        <v>1192</v>
+      </c>
+      <c r="M33" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" s="54" t="s">
+        <v>1179</v>
+      </c>
+      <c r="O33" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="P33" s="54" t="s">
+        <v>1181</v>
+      </c>
+      <c r="Q33" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="H33" s="59" t="s">
+      <c r="R33" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="I33" s="59" t="s">
-        <v>1183</v>
-      </c>
-      <c r="J33" s="59" t="s">
-        <v>1184</v>
-      </c>
-      <c r="K33" s="59" t="s">
-        <v>1185</v>
-      </c>
-      <c r="L33" s="59" t="s">
-        <v>1193</v>
-      </c>
-      <c r="M33" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="N33" s="59" t="s">
-        <v>1180</v>
-      </c>
-      <c r="O33" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="P33" s="59" t="s">
-        <v>1182</v>
-      </c>
-      <c r="Q33" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="R33" s="59" t="s">
-        <v>23</v>
-      </c>
       <c r="S33" s="20"/>
-      <c r="V33" s="55"/>
+      <c r="V33" s="58"/>
     </row>
     <row r="34" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B34" s="21"/>
       <c r="D34" s="51" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E34" s="51" t="s">
         <v>1287</v>
       </c>
-      <c r="E34" s="51" t="s">
-        <v>1288</v>
-      </c>
       <c r="F34" s="51" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="G34" s="51" t="s">
         <v>601</v>
       </c>
       <c r="H34" s="51"/>
       <c r="I34" s="51" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="J34" s="51" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="K34" s="51" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="L34" s="51" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="M34" s="51"/>
       <c r="N34" s="51" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="O34" s="51" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="P34" s="51" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="Q34" s="51" t="s">
         <v>601</v>
       </c>
       <c r="R34" s="51"/>
       <c r="S34" s="29"/>
-      <c r="V34" s="55"/>
+      <c r="V34" s="58"/>
     </row>
     <row r="35" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B35" s="12"/>
       <c r="C35" s="32"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
-      <c r="J35" s="61"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
       <c r="K35" s="52"/>
       <c r="L35" s="52"/>
       <c r="M35" s="52"/>
@@ -9137,27 +9134,27 @@
       <c r="P35" s="52"/>
       <c r="Q35" s="52"/>
       <c r="R35" s="52"/>
-      <c r="V35" s="55"/>
+      <c r="V35" s="58"/>
     </row>
     <row r="36" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B36" s="17"/>
-      <c r="D36" s="60" t="s">
+      <c r="D36" s="55" t="s">
         <v>621</v>
       </c>
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="55" t="s">
         <v>611</v>
       </c>
-      <c r="F36" s="60" t="s">
-        <v>1284</v>
-      </c>
-      <c r="G36" s="60" t="s">
+      <c r="F36" s="55" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G36" s="55" t="s">
         <v>555</v>
       </c>
-      <c r="H36" s="60" t="s">
-        <v>1307</v>
-      </c>
-      <c r="I36" s="60"/>
-      <c r="J36" s="60"/>
+      <c r="H36" s="55" t="s">
+        <v>1306</v>
+      </c>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
       <c r="K36" s="50"/>
       <c r="L36" s="50"/>
       <c r="M36" s="50"/>
@@ -9167,32 +9164,32 @@
       <c r="Q36" s="50"/>
       <c r="R36" s="50"/>
       <c r="S36" s="18"/>
-      <c r="V36" s="55"/>
+      <c r="V36" s="58"/>
     </row>
     <row r="37" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B37" s="19">
         <f>B33+1</f>
         <v>9</v>
       </c>
-      <c r="D37" s="59" t="s">
+      <c r="D37" s="54" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E37" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="F37" s="54" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G37" s="54" t="s">
         <v>1186</v>
       </c>
-      <c r="E37" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="F37" s="59" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G37" s="59" t="s">
-        <v>1187</v>
-      </c>
-      <c r="H37" s="59" t="s">
-        <v>1194</v>
-      </c>
-      <c r="I37" s="59" t="s">
+      <c r="H37" s="54" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I37" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="J37" s="59" t="str">
+      <c r="J37" s="54" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -9206,24 +9203,24 @@
       <c r="Q37" s="39"/>
       <c r="R37" s="39"/>
       <c r="S37" s="20"/>
-      <c r="V37" s="55"/>
+      <c r="V37" s="58"/>
     </row>
     <row r="38" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B38" s="21"/>
       <c r="D38" s="51" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E38" s="51" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F38" s="51" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G38" s="51" t="s">
         <v>1299</v>
       </c>
-      <c r="E38" s="51" t="s">
-        <v>1283</v>
-      </c>
-      <c r="F38" s="51" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G38" s="51" t="s">
-        <v>1300</v>
-      </c>
       <c r="H38" s="51" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="I38" s="51"/>
       <c r="J38" s="51"/>
@@ -9236,178 +9233,178 @@
       <c r="Q38" s="51"/>
       <c r="R38" s="51"/>
       <c r="S38" s="29"/>
-      <c r="V38" s="55"/>
+      <c r="V38" s="58"/>
     </row>
     <row r="39" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B39" s="12"/>
       <c r="C39" s="32"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="61"/>
-      <c r="N39" s="61"/>
-      <c r="O39" s="61"/>
-      <c r="P39" s="61"/>
-      <c r="Q39" s="61"/>
-      <c r="R39" s="61"/>
-      <c r="V39" s="55"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="56"/>
+      <c r="K39" s="56"/>
+      <c r="L39" s="56"/>
+      <c r="M39" s="56"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="56"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="V39" s="58"/>
     </row>
     <row r="40" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B40" s="17"/>
-      <c r="D40" s="60" t="s">
-        <v>1257</v>
-      </c>
-      <c r="E40" s="60" t="s">
-        <v>1268</v>
-      </c>
-      <c r="F40" s="60" t="s">
-        <v>1309</v>
-      </c>
-      <c r="G40" s="60" t="s">
-        <v>1309</v>
-      </c>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60" t="s">
-        <v>1271</v>
-      </c>
-      <c r="J40" s="60" t="s">
-        <v>1273</v>
-      </c>
-      <c r="K40" s="60" t="s">
-        <v>1303</v>
-      </c>
-      <c r="L40" s="60" t="s">
+      <c r="D40" s="55" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E40" s="55" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F40" s="55" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G40" s="55" t="s">
+        <v>1308</v>
+      </c>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55" t="s">
+        <v>1270</v>
+      </c>
+      <c r="J40" s="55" t="s">
+        <v>1272</v>
+      </c>
+      <c r="K40" s="55" t="s">
+        <v>1302</v>
+      </c>
+      <c r="L40" s="55" t="s">
         <v>597</v>
       </c>
-      <c r="M40" s="60"/>
-      <c r="N40" s="60" t="s">
-        <v>1277</v>
-      </c>
-      <c r="O40" s="60" t="s">
-        <v>1279</v>
-      </c>
-      <c r="P40" s="60" t="s">
+      <c r="M40" s="55"/>
+      <c r="N40" s="55" t="s">
+        <v>1276</v>
+      </c>
+      <c r="O40" s="55" t="s">
+        <v>1278</v>
+      </c>
+      <c r="P40" s="55" t="s">
         <v>497</v>
       </c>
-      <c r="Q40" s="60" t="s">
+      <c r="Q40" s="55" t="s">
         <v>541</v>
       </c>
-      <c r="R40" s="60"/>
+      <c r="R40" s="55"/>
       <c r="S40" s="18"/>
-      <c r="V40" s="55"/>
+      <c r="V40" s="58"/>
     </row>
     <row r="41" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B41" s="19">
         <f>B37+1</f>
         <v>10</v>
       </c>
-      <c r="D41" s="59" t="s">
+      <c r="D41" s="54" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E41" s="54" t="s">
         <v>1168</v>
       </c>
-      <c r="E41" s="59" t="s">
-        <v>1169</v>
-      </c>
-      <c r="F41" s="59" t="s">
+      <c r="F41" s="54" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G41" s="54" t="s">
+        <v>1194</v>
+      </c>
+      <c r="H41" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="54" t="s">
+        <v>1171</v>
+      </c>
+      <c r="J41" s="54" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K41" s="54" t="s">
+        <v>1189</v>
+      </c>
+      <c r="L41" s="54" t="s">
         <v>1195</v>
       </c>
-      <c r="G41" s="59" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H41" s="59" t="s">
+      <c r="M41" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="N41" s="54" t="s">
+        <v>1174</v>
+      </c>
+      <c r="O41" s="54" t="s">
+        <v>1175</v>
+      </c>
+      <c r="P41" s="54" t="s">
+        <v>1176</v>
+      </c>
+      <c r="Q41" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="R41" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="I41" s="59" t="s">
-        <v>1172</v>
-      </c>
-      <c r="J41" s="59" t="s">
-        <v>1173</v>
-      </c>
-      <c r="K41" s="59" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L41" s="59" t="s">
-        <v>1196</v>
-      </c>
-      <c r="M41" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="N41" s="59" t="s">
-        <v>1175</v>
-      </c>
-      <c r="O41" s="59" t="s">
-        <v>1176</v>
-      </c>
-      <c r="P41" s="59" t="s">
-        <v>1177</v>
-      </c>
-      <c r="Q41" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="R41" s="59" t="s">
-        <v>23</v>
-      </c>
       <c r="S41" s="20"/>
-      <c r="V41" s="55"/>
+      <c r="V41" s="58"/>
     </row>
     <row r="42" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B42" s="21"/>
       <c r="D42" s="51" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E42" s="51" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="F42" s="51" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="G42" s="51" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="H42" s="51"/>
       <c r="I42" s="51" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="J42" s="51" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="K42" s="51" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="L42" s="51" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="M42" s="51"/>
       <c r="N42" s="51" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="O42" s="51" t="s">
+        <v>1279</v>
+      </c>
+      <c r="P42" s="51" t="s">
         <v>1280</v>
       </c>
-      <c r="P42" s="51" t="s">
+      <c r="Q42" s="51" t="s">
         <v>1281</v>
-      </c>
-      <c r="Q42" s="51" t="s">
-        <v>1282</v>
       </c>
       <c r="R42" s="51"/>
       <c r="S42" s="29"/>
-      <c r="V42" s="55"/>
+      <c r="V42" s="58"/>
     </row>
     <row r="43" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B43" s="12"/>
       <c r="C43" s="32"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
       <c r="J43" s="52"/>
       <c r="K43" s="52"/>
       <c r="L43" s="52"/>
@@ -9417,24 +9414,24 @@
       <c r="P43" s="52"/>
       <c r="Q43" s="52"/>
       <c r="R43" s="52"/>
-      <c r="V43" s="55"/>
+      <c r="V43" s="58"/>
     </row>
     <row r="44" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B44" s="17"/>
-      <c r="D44" s="60" t="s">
+      <c r="D44" s="55" t="s">
         <v>611</v>
       </c>
-      <c r="E44" s="60" t="s">
-        <v>1284</v>
-      </c>
-      <c r="F44" s="60" t="s">
+      <c r="E44" s="55" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F44" s="55" t="s">
         <v>601</v>
       </c>
-      <c r="G44" s="60" t="s">
-        <v>1312</v>
-      </c>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
+      <c r="G44" s="55" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
       <c r="J44" s="50"/>
       <c r="K44" s="50"/>
       <c r="L44" s="50"/>
@@ -9445,29 +9442,29 @@
       <c r="Q44" s="50"/>
       <c r="R44" s="50"/>
       <c r="S44" s="18"/>
-      <c r="V44" s="55"/>
+      <c r="V44" s="58"/>
     </row>
     <row r="45" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B45" s="19">
         <f>B41+1</f>
         <v>11</v>
       </c>
-      <c r="D45" s="59" t="s">
+      <c r="D45" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="E45" s="59" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F45" s="59" t="s">
+      <c r="E45" s="54" t="s">
+        <v>1177</v>
+      </c>
+      <c r="F45" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="G45" s="59" t="s">
-        <v>1197</v>
-      </c>
-      <c r="H45" s="59" t="s">
+      <c r="G45" s="54" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H45" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="I45" s="59" t="str">
+      <c r="I45" s="54" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -9482,21 +9479,21 @@
       <c r="Q45" s="39"/>
       <c r="R45" s="39"/>
       <c r="S45" s="20"/>
-      <c r="V45" s="55"/>
+      <c r="V45" s="58"/>
     </row>
     <row r="46" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B46" s="21"/>
       <c r="D46" s="51" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="E46" s="51" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="F46" s="51" t="s">
         <v>601</v>
       </c>
       <c r="G46" s="51" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H46" s="51"/>
       <c r="I46" s="51"/>
@@ -9510,179 +9507,179 @@
       <c r="Q46" s="51"/>
       <c r="R46" s="51"/>
       <c r="S46" s="29"/>
-      <c r="V46" s="55"/>
+      <c r="V46" s="58"/>
     </row>
     <row r="47" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B47" s="12"/>
       <c r="C47" s="32"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="61"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="61"/>
-      <c r="N47" s="61"/>
-      <c r="O47" s="61"/>
-      <c r="P47" s="61"/>
-      <c r="Q47" s="61"/>
-      <c r="R47" s="61"/>
-      <c r="V47" s="55"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="56"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="56"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="56"/>
+      <c r="P47" s="56"/>
+      <c r="Q47" s="56"/>
+      <c r="R47" s="56"/>
+      <c r="V47" s="58"/>
     </row>
     <row r="48" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B48" s="17"/>
-      <c r="D48" s="60" t="s">
-        <v>1278</v>
-      </c>
-      <c r="E48" s="60" t="s">
-        <v>1259</v>
-      </c>
-      <c r="F48" s="60" t="s">
-        <v>1289</v>
-      </c>
-      <c r="G48" s="60" t="s">
+      <c r="D48" s="55" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E48" s="55" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F48" s="55" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G48" s="55" t="s">
         <v>601</v>
       </c>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60" t="s">
-        <v>1291</v>
-      </c>
-      <c r="J48" s="60" t="s">
-        <v>1293</v>
-      </c>
-      <c r="K48" s="60" t="s">
-        <v>1295</v>
-      </c>
-      <c r="L48" s="60" t="s">
-        <v>1313</v>
-      </c>
-      <c r="M48" s="60"/>
-      <c r="N48" s="60" t="s">
-        <v>1278</v>
-      </c>
-      <c r="O48" s="60" t="s">
+      <c r="H48" s="55"/>
+      <c r="I48" s="55" t="s">
+        <v>1290</v>
+      </c>
+      <c r="J48" s="55" t="s">
+        <v>1292</v>
+      </c>
+      <c r="K48" s="55" t="s">
+        <v>1294</v>
+      </c>
+      <c r="L48" s="55" t="s">
+        <v>1312</v>
+      </c>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55" t="s">
+        <v>1277</v>
+      </c>
+      <c r="O48" s="55" t="s">
         <v>814</v>
       </c>
-      <c r="P48" s="60" t="s">
-        <v>1289</v>
-      </c>
-      <c r="Q48" s="60" t="s">
+      <c r="P48" s="55" t="s">
+        <v>1288</v>
+      </c>
+      <c r="Q48" s="55" t="s">
         <v>601</v>
       </c>
-      <c r="R48" s="60"/>
+      <c r="R48" s="55"/>
       <c r="S48" s="18"/>
-      <c r="V48" s="55"/>
+      <c r="V48" s="58"/>
     </row>
     <row r="49" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B49" s="19">
         <f>B45+1</f>
         <v>12</v>
       </c>
-      <c r="D49" s="59" t="s">
+      <c r="D49" s="54" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E49" s="54" t="s">
         <v>1180</v>
       </c>
-      <c r="E49" s="59" t="s">
+      <c r="F49" s="54" t="s">
         <v>1181</v>
       </c>
-      <c r="F49" s="59" t="s">
+      <c r="G49" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="H49" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="54" t="s">
         <v>1182</v>
       </c>
-      <c r="G49" s="59" t="s">
+      <c r="J49" s="54" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K49" s="54" t="s">
+        <v>1184</v>
+      </c>
+      <c r="L49" s="54" t="s">
+        <v>1197</v>
+      </c>
+      <c r="M49" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="N49" s="54" t="s">
+        <v>1179</v>
+      </c>
+      <c r="O49" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="P49" s="54" t="s">
+        <v>1181</v>
+      </c>
+      <c r="Q49" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="H49" s="59" t="s">
+      <c r="R49" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="I49" s="59" t="s">
-        <v>1183</v>
-      </c>
-      <c r="J49" s="59" t="s">
-        <v>1184</v>
-      </c>
-      <c r="K49" s="59" t="s">
-        <v>1185</v>
-      </c>
-      <c r="L49" s="59" t="s">
-        <v>1198</v>
-      </c>
-      <c r="M49" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="N49" s="59" t="s">
-        <v>1180</v>
-      </c>
-      <c r="O49" s="59" t="s">
-        <v>228</v>
-      </c>
-      <c r="P49" s="59" t="s">
-        <v>1182</v>
-      </c>
-      <c r="Q49" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="R49" s="59" t="s">
-        <v>23</v>
-      </c>
       <c r="S49" s="20"/>
-      <c r="V49" s="55"/>
+      <c r="V49" s="58"/>
     </row>
     <row r="50" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B50" s="21"/>
       <c r="D50" s="51" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E50" s="51" t="s">
         <v>1287</v>
       </c>
-      <c r="E50" s="51" t="s">
-        <v>1288</v>
-      </c>
       <c r="F50" s="51" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="G50" s="51" t="s">
         <v>601</v>
       </c>
       <c r="H50" s="51"/>
       <c r="I50" s="51" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="J50" s="51" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="K50" s="51" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="L50" s="51" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="M50" s="51"/>
       <c r="N50" s="51" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="O50" s="51" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="P50" s="51" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="Q50" s="51" t="s">
         <v>601</v>
       </c>
       <c r="R50" s="51"/>
       <c r="S50" s="29"/>
-      <c r="V50" s="55"/>
+      <c r="V50" s="58"/>
     </row>
     <row r="51" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B51" s="12"/>
       <c r="C51" s="32"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="61"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
       <c r="K51" s="52"/>
       <c r="L51" s="52"/>
       <c r="M51" s="52"/>
@@ -9691,27 +9688,27 @@
       <c r="P51" s="52"/>
       <c r="Q51" s="52"/>
       <c r="R51" s="52"/>
-      <c r="V51" s="55"/>
+      <c r="V51" s="58"/>
     </row>
     <row r="52" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B52" s="17"/>
-      <c r="D52" s="60" t="s">
+      <c r="D52" s="55" t="s">
         <v>621</v>
       </c>
-      <c r="E52" s="60" t="s">
+      <c r="E52" s="55" t="s">
         <v>611</v>
       </c>
-      <c r="F52" s="60" t="s">
-        <v>1284</v>
-      </c>
-      <c r="G52" s="60" t="s">
+      <c r="F52" s="55" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G52" s="55" t="s">
         <v>555</v>
       </c>
-      <c r="H52" s="60" t="s">
+      <c r="H52" s="55" t="s">
         <v>440</v>
       </c>
-      <c r="I52" s="60"/>
-      <c r="J52" s="60"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
       <c r="K52" s="50"/>
       <c r="L52" s="50"/>
       <c r="M52" s="50"/>
@@ -9721,32 +9718,32 @@
       <c r="Q52" s="50"/>
       <c r="R52" s="50"/>
       <c r="S52" s="18"/>
-      <c r="V52" s="55"/>
+      <c r="V52" s="58"/>
     </row>
     <row r="53" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B53" s="19">
         <f>B49+1</f>
         <v>13</v>
       </c>
-      <c r="D53" s="59" t="s">
+      <c r="D53" s="54" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E53" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" s="54" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G53" s="54" t="s">
         <v>1186</v>
       </c>
-      <c r="E53" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="F53" s="59" t="s">
-        <v>1178</v>
-      </c>
-      <c r="G53" s="59" t="s">
-        <v>1187</v>
-      </c>
-      <c r="H53" s="59" t="s">
-        <v>1199</v>
-      </c>
-      <c r="I53" s="59" t="s">
+      <c r="H53" s="54" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I53" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="J53" s="59" t="str">
+      <c r="J53" s="54" t="str">
         <f>CHAR(10)</f>
         <v xml:space="preserve">
 </v>
@@ -9760,21 +9757,21 @@
       <c r="Q53" s="39"/>
       <c r="R53" s="39"/>
       <c r="S53" s="20"/>
-      <c r="V53" s="55"/>
+      <c r="V53" s="58"/>
     </row>
     <row r="54" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B54" s="21"/>
       <c r="D54" s="51" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E54" s="51" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F54" s="51" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G54" s="51" t="s">
         <v>1299</v>
-      </c>
-      <c r="E54" s="51" t="s">
-        <v>1283</v>
-      </c>
-      <c r="F54" s="51" t="s">
-        <v>1285</v>
-      </c>
-      <c r="G54" s="51" t="s">
-        <v>1300</v>
       </c>
       <c r="H54" s="51" t="s">
         <v>49</v>
@@ -9790,12 +9787,12 @@
       <c r="Q54" s="51"/>
       <c r="R54" s="51"/>
       <c r="S54" s="29"/>
-      <c r="V54" s="55"/>
+      <c r="V54" s="58"/>
     </row>
     <row r="55" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B55" s="12"/>
       <c r="C55" s="32"/>
-      <c r="D55" s="61"/>
+      <c r="D55" s="56"/>
       <c r="E55" s="52"/>
       <c r="F55" s="52"/>
       <c r="G55" s="52"/>
@@ -9810,11 +9807,11 @@
       <c r="P55" s="52"/>
       <c r="Q55" s="52"/>
       <c r="R55" s="52"/>
-      <c r="V55" s="55"/>
+      <c r="V55" s="58"/>
     </row>
     <row r="56" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B56" s="17"/>
-      <c r="D56" s="60"/>
+      <c r="D56" s="55"/>
       <c r="E56" s="50"/>
       <c r="F56" s="50"/>
       <c r="G56" s="50"/>
@@ -9830,14 +9827,14 @@
       <c r="Q56" s="50"/>
       <c r="R56" s="50"/>
       <c r="S56" s="18"/>
-      <c r="V56" s="55"/>
+      <c r="V56" s="58"/>
     </row>
     <row r="57" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B57" s="19">
         <f>B53+1</f>
         <v>14</v>
       </c>
-      <c r="D57" s="59" t="s">
+      <c r="D57" s="54" t="s">
         <v>38</v>
       </c>
       <c r="E57" s="39"/>
@@ -9855,7 +9852,7 @@
       <c r="Q57" s="39"/>
       <c r="R57" s="39"/>
       <c r="S57" s="20"/>
-      <c r="V57" s="55"/>
+      <c r="V57" s="58"/>
     </row>
     <row r="58" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B58" s="21"/>
@@ -9875,7 +9872,7 @@
       <c r="Q58" s="51"/>
       <c r="R58" s="51"/>
       <c r="S58" s="29"/>
-      <c r="V58" s="55"/>
+      <c r="V58" s="58"/>
     </row>
     <row r="59" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B59" s="12"/>
@@ -9895,7 +9892,7 @@
       <c r="P59" s="52"/>
       <c r="Q59" s="52"/>
       <c r="R59" s="52"/>
-      <c r="V59" s="55"/>
+      <c r="V59" s="58"/>
     </row>
     <row r="60" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B60" s="17"/>
@@ -9915,7 +9912,7 @@
       <c r="Q60" s="50"/>
       <c r="R60" s="50"/>
       <c r="S60" s="18"/>
-      <c r="V60" s="55"/>
+      <c r="V60" s="58"/>
     </row>
     <row r="61" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B61" s="19">
@@ -9938,7 +9935,7 @@
       <c r="Q61" s="39"/>
       <c r="R61" s="39"/>
       <c r="S61" s="20"/>
-      <c r="V61" s="55"/>
+      <c r="V61" s="58"/>
     </row>
     <row r="62" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B62" s="21"/>
@@ -9958,7 +9955,7 @@
       <c r="Q62" s="51"/>
       <c r="R62" s="51"/>
       <c r="S62" s="29"/>
-      <c r="V62" s="55"/>
+      <c r="V62" s="58"/>
     </row>
     <row r="63" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B63" s="12"/>
@@ -9978,7 +9975,7 @@
       <c r="P63" s="52"/>
       <c r="Q63" s="52"/>
       <c r="R63" s="52"/>
-      <c r="V63" s="55"/>
+      <c r="V63" s="58"/>
     </row>
     <row r="64" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B64" s="17"/>
@@ -9998,7 +9995,7 @@
       <c r="Q64" s="50"/>
       <c r="R64" s="50"/>
       <c r="S64" s="18"/>
-      <c r="V64" s="55"/>
+      <c r="V64" s="58"/>
     </row>
     <row r="65" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B65" s="19">
@@ -10021,7 +10018,7 @@
       <c r="Q65" s="39"/>
       <c r="R65" s="39"/>
       <c r="S65" s="20"/>
-      <c r="V65" s="55"/>
+      <c r="V65" s="58"/>
     </row>
     <row r="66" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B66" s="21"/>
@@ -10041,7 +10038,7 @@
       <c r="Q66" s="51"/>
       <c r="R66" s="51"/>
       <c r="S66" s="29"/>
-      <c r="V66" s="55"/>
+      <c r="V66" s="58"/>
     </row>
     <row r="67" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B67" s="12"/>
@@ -10061,7 +10058,7 @@
       <c r="P67" s="52"/>
       <c r="Q67" s="52"/>
       <c r="R67" s="52"/>
-      <c r="V67" s="55"/>
+      <c r="V67" s="58"/>
     </row>
     <row r="68" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B68" s="17"/>
@@ -10081,7 +10078,7 @@
       <c r="Q68" s="50"/>
       <c r="R68" s="50"/>
       <c r="S68" s="18"/>
-      <c r="V68" s="55"/>
+      <c r="V68" s="58"/>
     </row>
     <row r="69" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B69" s="19">
@@ -10104,7 +10101,7 @@
       <c r="Q69" s="39"/>
       <c r="R69" s="39"/>
       <c r="S69" s="20"/>
-      <c r="V69" s="55"/>
+      <c r="V69" s="58"/>
     </row>
     <row r="70" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B70" s="21"/>
@@ -10124,7 +10121,7 @@
       <c r="Q70" s="51"/>
       <c r="R70" s="51"/>
       <c r="S70" s="29"/>
-      <c r="V70" s="55"/>
+      <c r="V70" s="58"/>
     </row>
     <row r="71" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B71" s="12"/>
@@ -10144,7 +10141,7 @@
       <c r="P71" s="52"/>
       <c r="Q71" s="52"/>
       <c r="R71" s="52"/>
-      <c r="V71" s="55"/>
+      <c r="V71" s="58"/>
     </row>
     <row r="72" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B72" s="17"/>
@@ -10164,7 +10161,7 @@
       <c r="Q72" s="50"/>
       <c r="R72" s="50"/>
       <c r="S72" s="18"/>
-      <c r="V72" s="55"/>
+      <c r="V72" s="58"/>
     </row>
     <row r="73" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B73" s="19">
@@ -10187,7 +10184,7 @@
       <c r="Q73" s="39"/>
       <c r="R73" s="39"/>
       <c r="S73" s="20"/>
-      <c r="V73" s="55"/>
+      <c r="V73" s="58"/>
     </row>
     <row r="74" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B74" s="21"/>
@@ -10207,7 +10204,7 @@
       <c r="Q74" s="51"/>
       <c r="R74" s="51"/>
       <c r="S74" s="29"/>
-      <c r="V74" s="55"/>
+      <c r="V74" s="58"/>
     </row>
     <row r="75" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B75" s="12"/>
@@ -10227,7 +10224,7 @@
       <c r="P75" s="52"/>
       <c r="Q75" s="52"/>
       <c r="R75" s="52"/>
-      <c r="V75" s="55"/>
+      <c r="V75" s="58"/>
     </row>
     <row r="76" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B76" s="17"/>
@@ -10247,7 +10244,7 @@
       <c r="Q76" s="50"/>
       <c r="R76" s="50"/>
       <c r="S76" s="18"/>
-      <c r="V76" s="55"/>
+      <c r="V76" s="58"/>
     </row>
     <row r="77" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B77" s="19">
@@ -10270,7 +10267,7 @@
       <c r="Q77" s="39"/>
       <c r="R77" s="39"/>
       <c r="S77" s="20"/>
-      <c r="V77" s="55"/>
+      <c r="V77" s="58"/>
     </row>
     <row r="78" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B78" s="21"/>
@@ -10290,7 +10287,7 @@
       <c r="Q78" s="51"/>
       <c r="R78" s="51"/>
       <c r="S78" s="29"/>
-      <c r="V78" s="55"/>
+      <c r="V78" s="58"/>
     </row>
     <row r="79" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B79" s="12"/>
@@ -10310,7 +10307,7 @@
       <c r="P79" s="52"/>
       <c r="Q79" s="52"/>
       <c r="R79" s="52"/>
-      <c r="V79" s="55"/>
+      <c r="V79" s="58"/>
     </row>
     <row r="80" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B80" s="17"/>
@@ -10330,7 +10327,7 @@
       <c r="Q80" s="50"/>
       <c r="R80" s="50"/>
       <c r="S80" s="18"/>
-      <c r="V80" s="55"/>
+      <c r="V80" s="58"/>
     </row>
     <row r="81" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B81" s="19">
@@ -10353,7 +10350,7 @@
       <c r="Q81" s="39"/>
       <c r="R81" s="39"/>
       <c r="S81" s="20"/>
-      <c r="V81" s="55"/>
+      <c r="V81" s="58"/>
     </row>
     <row r="82" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B82" s="21"/>
@@ -10373,7 +10370,7 @@
       <c r="Q82" s="51"/>
       <c r="R82" s="51"/>
       <c r="S82" s="29"/>
-      <c r="V82" s="56"/>
+      <c r="V82" s="59"/>
     </row>
     <row r="83" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B83" s="12"/>
@@ -48270,59 +48267,59 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="115" priority="59">
+    <cfRule type="expression" dxfId="115" priority="60">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="114" priority="59">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="60">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="113" priority="57">
+    <cfRule type="expression" dxfId="113" priority="58">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="57">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="58">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="111" priority="55">
+    <cfRule type="expression" dxfId="111" priority="56">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="55">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="56">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="109" priority="53">
+    <cfRule type="expression" dxfId="109" priority="54">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="53">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="54">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23">
-    <cfRule type="expression" dxfId="107" priority="51">
+    <cfRule type="expression" dxfId="107" priority="52">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="51">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="52">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="105" priority="49">
+    <cfRule type="expression" dxfId="105" priority="50">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="49">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="50">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="103" priority="47">
+    <cfRule type="expression" dxfId="103" priority="48">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="102" priority="47">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="48">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
@@ -48334,19 +48331,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="99" priority="43">
+    <cfRule type="expression" dxfId="99" priority="44">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="43">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="44">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="97" priority="41">
+    <cfRule type="expression" dxfId="97" priority="42">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="41">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="42">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
@@ -48358,19 +48355,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51">
-    <cfRule type="expression" dxfId="93" priority="37">
+    <cfRule type="expression" dxfId="93" priority="38">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="92" priority="37">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="38">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="91" priority="35">
+    <cfRule type="expression" dxfId="91" priority="36">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="90" priority="35">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="36">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
@@ -48382,19 +48379,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="87" priority="31">
+    <cfRule type="expression" dxfId="87" priority="32">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="86" priority="31">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="32">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
-    <cfRule type="expression" dxfId="85" priority="29">
+    <cfRule type="expression" dxfId="85" priority="30">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="29">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="30">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:R71">
@@ -48406,19 +48403,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="81" priority="25">
+    <cfRule type="expression" dxfId="81" priority="26">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="80" priority="25">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="26">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="79" priority="23">
+    <cfRule type="expression" dxfId="79" priority="24">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="78" priority="23">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="24">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
@@ -48430,27 +48427,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:R87">
-    <cfRule type="expression" dxfId="75" priority="19">
+    <cfRule type="expression" dxfId="75" priority="20">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="74" priority="19">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="20">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:R91">
-    <cfRule type="expression" dxfId="73" priority="17">
+    <cfRule type="expression" dxfId="73" priority="18">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="72" priority="17">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="18">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95:R95 D99:R99 D103:R103 D107:R107 D111:R111 D115:R115 D119:R119 D123:R123 D127:R127 D131:R131 D135:R135 D139:R139 D143:R143 D147:R147 D151:R151 D155:R155 D159:R159 D163:R163 D167:R167 D171:R171 D175:R175 D179:R179 D183:R183 D187:R187 D191:R191 D195:R195 D199:R199 D203:R203 D207:R207 D211:R211 D215:R215 D219:R219 D223:R223 D227:R227 D231:R231 D235:R235 D239:R239 D243:R243 D247:R247 D251:R251 D255:R255 D259:R259 D263:R263 D267:R267 D271:R271 D275:R275 D279:R279 D283:R283 D287:R287 D291:R291 D295:R295 D299:R299 D303:R303 D307:R307 D311:R311 D315:R315 D319:R319 D323:R323 D327:R327 D331:R331 D335:R335 D339:R339 D343:R343 D347:R347 D351:R351 D355:R355 D359:R359 D363:R363 D367:R367 D371:R371 D375:R375 D379:R379 D383:R383 D387:R387 D391:R391 D395:R395 D399:R399 D403:R403 D407:R407 D411:R411 D415:R415 D419:R419 D423:R423 D427:R427 D431:R431 D435:R435 D439:R439 D443:R443 D447:R447 D451:R451 D455:R455 D459:R459 D463:R463 D467:R467 D471:R471 D475:R475 D479:R479 D483:R483 D487:R487 D491:R491 D495:R495 D499:R499 D503:R503 D507:R507 D511:R511 D515:R515 D519:R519 D523:R523 D527:R527 D531:R531 D535:R535 D539:R539 D543:R543 D547:R547 D551:R551 D555:R555 D559:R559 D563:R563 D567:R567 D571:R571 D575:R575 D579:R579 D583:R583 D587:R587 D591:R591 D595:R595 D599:R599 D603:R603 D607:R607 D611:R611 D615:R615 D619:R619 D623:R623 D627:R627 D631:R631 D635:R635 D639:R639 D643:R643 D647:R647 D651:R651 D655:R655 D659:R659 D663:R663 D667:R667 D671:R671 D675:R675 D679:R679 D683:R683 D687:R687 D691:R691 D695:R695 D699:R699 D703:R703 D707:R707 D711:R711 D715:R715 D719:R719 D723:R723 D727:R727 D731:R731 D735:R735 D739:R739 D743:R743 D747:R747 D751:R751 D755:R755 D759:R759 D763:R763 D767:R767 D771:R771 D775:R775 D779:R779 D783:R783 D787:R787 D791:R791 D795:R795 D799:R799 D803:R803 D807:R807 D811:R811 D815:R815 D819:R819 D823:R823 D827:R827 D831:R831 D835:R835 D839:R839 D843:R843 D847:R847 D851:R851 D855:R855 D859:R859 D863:R863 D867:R867 D871:R871 D875:R875 D879:R879 D883:R883 D887:R887 D891:R891 D895:R895 D899:R899 D903:R903 D907:R907 D911:R911 D915:R915 D919:R919 D923:R923 D927:R927 D931:R931 D935:R935 D939:R939 D943:R943 D947:R947 D951:R951 D955:R955 D959:R959 D963:R963 D967:R967 D971:R971 D975:R975 D979:R979 D983:R983 D987:R987 D991:R991 D995:R995 D999:R999 D1003:R1003 D1007:R1007 D1011:R1011 D1015:R1015 D1019:R1019 D1023:R1023 D1027:R1027 D1031:R1031 D1035:R1035 D1039:R1039 D1043:R1043 D1047:R1047 D1051:R1051 D1055:R1055 D1059:R1059 D1063:R1063 D1067:R1067 D1071:R1071 D1075:R1075 D1079:R1079 D1083:R1083 D1087:R1087 D1091:R1091 D1095:R1095 D1099:R1099 D1103:R1103 D1107:R1107 D1111:R1111 D1115:R1115 D1119:R1119 D1123:R1123 D1127:R1127 D1131:R1131 D1135:R1135 D1139:R1139 D1143:R1143 D1147:R1147 D1151:R1151 D1155:R1155 D1159:R1159 D1163:R1163 D1167:R1167 D1171:R1171 D1175:R1175 D1179:R1179 D1183:R1183 D1187:R1187 D1191:R1191 D1195:R1195 D1199:R1199 D1203:R1203 D1207:R1207 D1211:R1211 D1215:R1215 D1219:R1219 D1223:R1223 D1227:R1227 D1231:R1231 D1235:R1235 D1239:R1239 D1243:R1243 D1247:R1247 D1251:R1251 D1255:R1255 D1259:R1259 D1263:R1263 D1267:R1267 D1271:R1271 D1275:R1275 D1279:R1279 D1283:R1283 D1287:R1287 D1291:R1291 D1295:R1295 D1299:R1299 D1303:R1303 D1307:R1307 D1311:R1311 D1315:R1315 D1319:R1319 D1323:R1323 D1327:R1327 D1331:R1331 D1335:R1335 D1339:R1339 D1343:R1343 D1347:R1347 D1351:R1351 D1355:R1355 D1359:R1359 D1363:R1363 D1367:R1367 D1371:R1371 D1375:R1375 D1379:R1379 D1383:R1383 D1387:R1387 D1391:R1391 D1395:R1395 D1399:R1399 D1403:R1403 D1407:R1407 D1411:R1411 D1415:R1415 D1419:R1419 D1423:R1423 D1427:R1427 D1431:R1431 D1435:R1435 D1439:R1439 D1443:R1443 D1447:R1447 D1451:R1451 D1455:R1455 D1459:R1459 D1463:R1463 D1467:R1467 D1471:R1471 D1475:R1475 D1479:R1479 D1483:R1483 D1487:R1487 D1491:R1491 D1495:R1495 D1499:R1499 D1503:R1503 D1507:R1507 D1511:R1511 D1515:R1515 D1519:R1519 D1523:R1523 D1527:R1527 D1531:R1531 D1535:R1535 D1539:R1539 D1543:R1543 D1547:R1547 D1551:R1551 D1555:R1555 D1559:R1559 D1563:R1563 D1567:R1567 D1571:R1571 D1575:R1575 D1579:R1579 D1583:R1583 D1587:R1587 D1591:R1591 D1595:R1595 D1599:R1599 D1603:R1603 D1607:R1607 D1611:R1611 D1615:R1615 D1619:R1619 D1623:R1623 D1627:R1627 D1631:R1631 D1635:R1635 D1639:R1639 D1643:R1643 D1647:R1647 D1651:R1651 D1655:R1655 D1659:R1659 D1663:R1663 D1667:R1667 D1671:R1671 D1675:R1675 D1679:R1679 D1683:R1683 D1687:R1687 D1691:R1691 D1695:R1695 D1699:R1699 D1703:R1703 D1707:R1707 D1711:R1711 D1715:R1715 D1719:R1719 D1723:R1723 D1727:R1727 D1731:R1731 D1735:R1735 D1739:R1739 D1743:R1743 D1747:R1747 D1751:R1751 D1755:R1755 D1759:R1759 D1763:R1763 D1767:R1767 D1771:R1771 D1775:R1775 D1779:R1779 D1783:R1783 D1787:R1787 D1791:R1791 D1795:R1795 D1799:R1799 D1803:R1803 D1807:R1807 D1811:R1811 D1815:R1815 D1819:R1819 D1823:R1823 D1827:R1827 D1831:R1831 D1835:R1835 D1839:R1839 D1843:R1843 D1847:R1847 D1851:R1851 D1855:R1855 D1859:R1859 D1863:R1863 D1867:R1867 D1871:R1871 D1875:R1875 D1879:R1879 D1883:R1883 D1887:R1887 D1891:R1891 D1895:R1895 D1899:R1899 D1903:R1903 D1907:R1907 D1911:R1911 D1915:R1915 D1919:R1919 D1923:R1923 D1927:R1927 D1931:R1931 D1935:R1935 D1939:R1939 D1943:R1943 D1947:R1947 D1951:R1951 D1955:R1955 D1959:R1959 D1963:R1963 D1967:R1967 D1971:R1971 D1975:R1975 D1979:R1979 D1983:R1983 D1987:R1987 D1991:R1991 D1995:R1995 D1999:R1999">
-    <cfRule type="expression" dxfId="71" priority="1">
+    <cfRule type="expression" dxfId="71" priority="2">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="1">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="2">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -52827,7 +52824,7 @@
       <c r="Q3" s="52"/>
       <c r="R3" s="52"/>
       <c r="T3" s="16"/>
-      <c r="V3" s="54" t="s">
+      <c r="V3" s="57" t="s">
         <v>66</v>
       </c>
     </row>
@@ -52875,7 +52872,7 @@
       </c>
       <c r="R4" s="50"/>
       <c r="S4" s="18"/>
-      <c r="V4" s="57"/>
+      <c r="V4" s="60"/>
     </row>
     <row r="5" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="19">
@@ -52927,7 +52924,7 @@
         <v>30</v>
       </c>
       <c r="S5" s="20"/>
-      <c r="V5" s="57"/>
+      <c r="V5" s="60"/>
     </row>
     <row r="6" spans="1:22" s="24" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="21"/>
@@ -52974,7 +52971,7 @@
       </c>
       <c r="R6" s="51"/>
       <c r="S6" s="23"/>
-      <c r="V6" s="57"/>
+      <c r="V6" s="60"/>
     </row>
     <row r="7" spans="1:22" s="28" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="25"/>
@@ -52995,7 +52992,7 @@
       <c r="Q7" s="52"/>
       <c r="R7" s="52"/>
       <c r="S7" s="27"/>
-      <c r="V7" s="57"/>
+      <c r="V7" s="60"/>
     </row>
     <row r="8" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="17"/>
@@ -53039,7 +53036,7 @@
         <v>553</v>
       </c>
       <c r="S8" s="18"/>
-      <c r="V8" s="57"/>
+      <c r="V8" s="60"/>
     </row>
     <row r="9" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="19">
@@ -53093,7 +53090,7 @@
       </c>
       <c r="S9" s="20"/>
       <c r="T9" s="16"/>
-      <c r="V9" s="57"/>
+      <c r="V9" s="60"/>
     </row>
     <row r="10" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="21"/>
@@ -53137,7 +53134,7 @@
         <v>554</v>
       </c>
       <c r="S10" s="29"/>
-      <c r="V10" s="57"/>
+      <c r="V10" s="60"/>
     </row>
     <row r="11" spans="1:22" s="27" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="30"/>
@@ -53157,7 +53154,7 @@
       <c r="P11" s="52"/>
       <c r="Q11" s="52"/>
       <c r="R11" s="52"/>
-      <c r="V11" s="57"/>
+      <c r="V11" s="60"/>
     </row>
     <row r="12" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="17"/>
@@ -53203,7 +53200,7 @@
         <v>579</v>
       </c>
       <c r="S12" s="18"/>
-      <c r="V12" s="57"/>
+      <c r="V12" s="60"/>
     </row>
     <row r="13" spans="1:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="19">
@@ -53256,7 +53253,7 @@
         <v>99</v>
       </c>
       <c r="S13" s="20"/>
-      <c r="V13" s="57"/>
+      <c r="V13" s="60"/>
     </row>
     <row r="14" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="21"/>
@@ -53302,7 +53299,7 @@
         <v>580</v>
       </c>
       <c r="S14" s="29"/>
-      <c r="V14" s="57"/>
+      <c r="V14" s="60"/>
     </row>
     <row r="15" spans="1:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B15" s="12"/>
@@ -53322,7 +53319,7 @@
       <c r="P15" s="52"/>
       <c r="Q15" s="52"/>
       <c r="R15" s="52"/>
-      <c r="V15" s="57"/>
+      <c r="V15" s="60"/>
     </row>
     <row r="16" spans="1:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B16" s="17"/>
@@ -53368,7 +53365,7 @@
       </c>
       <c r="R16" s="50"/>
       <c r="S16" s="18"/>
-      <c r="V16" s="57"/>
+      <c r="V16" s="60"/>
     </row>
     <row r="17" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B17" s="19">
@@ -53421,7 +53418,7 @@
         <v>30</v>
       </c>
       <c r="S17" s="20"/>
-      <c r="V17" s="57"/>
+      <c r="V17" s="60"/>
     </row>
     <row r="18" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="21"/>
@@ -53467,7 +53464,7 @@
       </c>
       <c r="R18" s="51"/>
       <c r="S18" s="29"/>
-      <c r="V18" s="57"/>
+      <c r="V18" s="60"/>
     </row>
     <row r="19" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B19" s="12"/>
@@ -53487,7 +53484,7 @@
       <c r="P19" s="52"/>
       <c r="Q19" s="52"/>
       <c r="R19" s="52"/>
-      <c r="V19" s="57"/>
+      <c r="V19" s="60"/>
     </row>
     <row r="20" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B20" s="17"/>
@@ -53507,7 +53504,7 @@
       <c r="Q20" s="50"/>
       <c r="R20" s="50"/>
       <c r="S20" s="18"/>
-      <c r="V20" s="57"/>
+      <c r="V20" s="60"/>
     </row>
     <row r="21" spans="2:22" s="6" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B21" s="19">
@@ -53534,7 +53531,7 @@
       <c r="Q21" s="39"/>
       <c r="R21" s="39"/>
       <c r="S21" s="20"/>
-      <c r="V21" s="57"/>
+      <c r="V21" s="60"/>
     </row>
     <row r="22" spans="2:22" s="6" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="21"/>
@@ -53554,7 +53551,7 @@
       <c r="Q22" s="51"/>
       <c r="R22" s="51"/>
       <c r="S22" s="29"/>
-      <c r="V22" s="58"/>
+      <c r="V22" s="61"/>
     </row>
     <row r="23" spans="2:22" s="33" customFormat="1" ht="60" customHeight="1">
       <c r="B23" s="12"/>
@@ -58440,11 +58437,11 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="69" priority="59">
+    <cfRule type="expression" dxfId="69" priority="60">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="68" priority="59">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="60">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
@@ -58464,19 +58461,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="63" priority="53">
+    <cfRule type="expression" dxfId="63" priority="54">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="53">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="54">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="61" priority="51">
+    <cfRule type="expression" dxfId="61" priority="52">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="51">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="52">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23">
@@ -58488,19 +58485,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="57" priority="47">
+    <cfRule type="expression" dxfId="57" priority="48">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="47">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="48">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="55" priority="45">
+    <cfRule type="expression" dxfId="55" priority="46">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="45">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="46">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
@@ -58512,19 +58509,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="51" priority="41">
+    <cfRule type="expression" dxfId="51" priority="42">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="41">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="42">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:R43">
-    <cfRule type="expression" dxfId="49" priority="39">
+    <cfRule type="expression" dxfId="49" priority="40">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="39">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="40">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
@@ -58544,11 +58541,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:R55">
-    <cfRule type="expression" dxfId="43" priority="33">
+    <cfRule type="expression" dxfId="43" priority="34">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="33">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="34">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:R59">
@@ -58560,11 +58557,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:R63">
-    <cfRule type="expression" dxfId="39" priority="29">
+    <cfRule type="expression" dxfId="39" priority="30">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="29">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="30">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:R67">
@@ -58584,19 +58581,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D75:R75">
-    <cfRule type="expression" dxfId="33" priority="23">
+    <cfRule type="expression" dxfId="33" priority="24">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="23">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="24">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:R79">
-    <cfRule type="expression" dxfId="31" priority="21">
+    <cfRule type="expression" dxfId="31" priority="22">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="21">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="22">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:R83">
@@ -58616,11 +58613,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:R91">
-    <cfRule type="expression" dxfId="25" priority="15">
+    <cfRule type="expression" dxfId="25" priority="16">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="15">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="16">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95:R95">
@@ -58632,43 +58629,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D99:R99">
-    <cfRule type="expression" dxfId="21" priority="11">
+    <cfRule type="expression" dxfId="21" priority="12">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="11">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="12">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D103:R103">
-    <cfRule type="expression" dxfId="19" priority="9">
+    <cfRule type="expression" dxfId="19" priority="10">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="9">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="10">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:R107">
-    <cfRule type="expression" dxfId="17" priority="7">
+    <cfRule type="expression" dxfId="17" priority="8">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="7">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="8">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D111:R111">
-    <cfRule type="expression" dxfId="15" priority="5">
+    <cfRule type="expression" dxfId="15" priority="6">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="5">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="6">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D115:R115">
-    <cfRule type="expression" dxfId="13" priority="3">
+    <cfRule type="expression" dxfId="13" priority="4">
+      <formula>"'= TRUE(顯示注音輸入)"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="3">
       <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="4">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119:R119">

--- a/output7/【河洛文讀注音-閩拼調號】《蒹葭》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《蒹葭》.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA665D9-4B19-4CDD-AEDF-B88DD298F644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D051DC7-6A24-4989-9B61-BE3B0F154363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="1315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="1316">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3994,13 +3994,13 @@
     <t>河洛話</t>
   </si>
   <si>
-    <t>閩拼調號</t>
-  </si>
-  <si>
     <t>無預設</t>
   </si>
   <si>
     <t>上及右</t>
+  </si>
+  <si>
+    <t>方音符號</t>
   </si>
   <si>
     <t>output7</t>
@@ -4511,6 +4511,9 @@
   <si>
     <t>https://i.epochtimes.com/assets/uploads/2018/09/346078.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注音二式</t>
   </si>
 </sst>
 </file>
@@ -6858,7 +6861,7 @@
   <dimension ref="B1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15" defaultRowHeight="25.5"/>
@@ -6986,7 +6989,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>1162</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="30">
@@ -6994,7 +6997,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="30">
@@ -7002,7 +7005,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="30">
@@ -7010,7 +7013,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>1162</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="30">
@@ -7018,7 +7021,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="30">

--- a/output7/【河洛文讀注音-閩拼調號】《蒹葭》.xlsx
+++ b/output7/【河洛文讀注音-閩拼調號】《蒹葭》.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D051DC7-6A24-4989-9B61-BE3B0F154363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F284D5-7569-4540-AE90-AAF1CABF2CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{25A76161-EFED-4AC8-8EAA-A42737AE1909}"/>
   </bookViews>
   <sheets>
     <sheet name="env" sheetId="8" r:id="rId1"/>
     <sheet name="標音字庫" sheetId="123" r:id="rId2"/>
     <sheet name="缺字表" sheetId="122" r:id="rId3"/>
-    <sheet name="缺字表 (2)" sheetId="125" r:id="rId4"/>
-    <sheet name="人工標音字庫" sheetId="124" r:id="rId5"/>
-    <sheet name="漢字注音" sheetId="9" r:id="rId6"/>
-    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId7"/>
-    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId8"/>
-    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId9"/>
+    <sheet name="人工標音字庫" sheetId="124" r:id="rId4"/>
+    <sheet name="漢字注音" sheetId="9" r:id="rId5"/>
+    <sheet name="缺字表 (範例)" sheetId="110" r:id="rId6"/>
+    <sheet name="標音字庫 (範例)" sheetId="121" r:id="rId7"/>
+    <sheet name="漢字注音 (範例)" sheetId="120" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="FILE_NAME">env!$C$5</definedName>
@@ -66,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="1316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="1317">
   <si>
     <t>Key</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -4514,6 +4513,10 @@
   </si>
   <si>
     <t>注音二式</t>
+  </si>
+  <si>
+    <t>iong1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6860,7 +6863,7 @@
   </sheetPr>
   <dimension ref="B1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -7736,120 +7739,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EB8E75-6664-41A3-A969-36B5E768A1DB}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B2" t="s">
-        <v>499</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>1180</v>
-      </c>
-      <c r="B3" t="s">
-        <v>499</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1258</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B4" t="s">
-        <v>499</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1260</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>1192</v>
-      </c>
-      <c r="B5" t="s">
-        <v>499</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B6" t="s">
-        <v>499</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1264</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B7" t="s">
-        <v>499</v>
-      </c>
-      <c r="C7" t="s">
-        <v>440</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E98815C-C38A-4C18-856C-8F2344AE0658}">
   <dimension ref="A1:D1"/>
   <sheetViews>
@@ -7877,15 +7766,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B653E275-5A31-466A-99DB-0BBFEE8A78C6}">
   <dimension ref="A1:V2002"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D39" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -8548,7 +8437,9 @@
       <c r="E19" s="56"/>
       <c r="F19" s="56"/>
       <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
+      <c r="H19" s="56" t="s">
+        <v>1316</v>
+      </c>
       <c r="I19" s="56"/>
       <c r="J19" s="56"/>
       <c r="K19" s="52"/>
@@ -48458,7 +48349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2180A89-0265-4346-97D5-5D16606F5B0F}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -48627,7 +48518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD15F3BA-C880-4104-B992-B0FF90EEBE97}">
   <dimension ref="A1:E238"/>
   <sheetViews>
@@ -52690,7 +52581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C93001D-D880-46B9-9D80-7A0F5AA84ACC}">
   <dimension ref="A1:V241"/>
   <sheetViews>
